--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.581301333333333</v>
+        <v>1.805876333333333</v>
       </c>
       <c r="H2">
-        <v>4.743904</v>
+        <v>5.417629</v>
       </c>
       <c r="I2">
-        <v>0.04758699558318742</v>
+        <v>0.0923397862322211</v>
       </c>
       <c r="J2">
-        <v>0.04758699558318742</v>
+        <v>0.09233978623222112</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N2">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O2">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P2">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q2">
-        <v>7.987111393731555</v>
+        <v>11.68218992198222</v>
       </c>
       <c r="R2">
-        <v>71.88400254358399</v>
+        <v>105.13970929784</v>
       </c>
       <c r="S2">
-        <v>0.001592512483761037</v>
+        <v>0.003919901741807068</v>
       </c>
       <c r="T2">
-        <v>0.001592512483761036</v>
+        <v>0.003919901741807068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.581301333333333</v>
+        <v>1.805876333333333</v>
       </c>
       <c r="H3">
-        <v>4.743904</v>
+        <v>5.417629</v>
       </c>
       <c r="I3">
-        <v>0.04758699558318742</v>
+        <v>0.0923397862322211</v>
       </c>
       <c r="J3">
-        <v>0.04758699558318742</v>
+        <v>0.09233978623222112</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O3">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P3">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q3">
-        <v>37.13577967612088</v>
+        <v>42.40976986696255</v>
       </c>
       <c r="R3">
-        <v>334.2220170850879</v>
+        <v>381.687928802663</v>
       </c>
       <c r="S3">
-        <v>0.007404328024626713</v>
+        <v>0.01423039103809876</v>
       </c>
       <c r="T3">
-        <v>0.007404328024626713</v>
+        <v>0.01423039103809876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.581301333333333</v>
+        <v>1.805876333333333</v>
       </c>
       <c r="H4">
-        <v>4.743904</v>
+        <v>5.417629</v>
       </c>
       <c r="I4">
-        <v>0.04758699558318742</v>
+        <v>0.0923397862322211</v>
       </c>
       <c r="J4">
-        <v>0.04758699558318742</v>
+        <v>0.09233978623222112</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N4">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O4">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P4">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q4">
-        <v>79.50507852147911</v>
+        <v>84.13034328419542</v>
       </c>
       <c r="R4">
-        <v>715.5457066933119</v>
+        <v>757.1730895577589</v>
       </c>
       <c r="S4">
-        <v>0.01585214276180312</v>
+        <v>0.02822952557533725</v>
       </c>
       <c r="T4">
-        <v>0.01585214276180312</v>
+        <v>0.02822952557533726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.581301333333333</v>
+        <v>1.805876333333333</v>
       </c>
       <c r="H5">
-        <v>4.743904</v>
+        <v>5.417629</v>
       </c>
       <c r="I5">
-        <v>0.04758699558318742</v>
+        <v>0.0923397862322211</v>
       </c>
       <c r="J5">
-        <v>0.04758699558318742</v>
+        <v>0.09233978623222112</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N5">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O5">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P5">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q5">
-        <v>12.01416616869333</v>
+        <v>9.071720437301666</v>
       </c>
       <c r="R5">
-        <v>108.12749551824</v>
+        <v>81.64548393571499</v>
       </c>
       <c r="S5">
-        <v>0.002395447948884169</v>
+        <v>0.003043971462615268</v>
       </c>
       <c r="T5">
-        <v>0.002395447948884169</v>
+        <v>0.003043971462615269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.581301333333333</v>
+        <v>1.805876333333333</v>
       </c>
       <c r="H6">
-        <v>4.743904</v>
+        <v>5.417629</v>
       </c>
       <c r="I6">
-        <v>0.04758699558318742</v>
+        <v>0.0923397862322211</v>
       </c>
       <c r="J6">
-        <v>0.04758699558318742</v>
+        <v>0.09233978623222112</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N6">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O6">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P6">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q6">
-        <v>16.10280156147911</v>
+        <v>18.80098272004478</v>
       </c>
       <c r="R6">
-        <v>144.925214053312</v>
+        <v>169.208844480403</v>
       </c>
       <c r="S6">
-        <v>0.003210661683059541</v>
+        <v>0.006308577878306152</v>
       </c>
       <c r="T6">
-        <v>0.003210661683059541</v>
+        <v>0.006308577878306152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.581301333333333</v>
+        <v>1.805876333333333</v>
       </c>
       <c r="H7">
-        <v>4.743904</v>
+        <v>5.417629</v>
       </c>
       <c r="I7">
-        <v>0.04758699558318742</v>
+        <v>0.0923397862322211</v>
       </c>
       <c r="J7">
-        <v>0.04758699558318742</v>
+        <v>0.09233978623222112</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N7">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O7">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P7">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q7">
-        <v>85.92360593430044</v>
+        <v>109.0983509435003</v>
       </c>
       <c r="R7">
-        <v>773.3124534087038</v>
+        <v>981.8851584915029</v>
       </c>
       <c r="S7">
-        <v>0.01713190268105284</v>
+        <v>0.03660741853605661</v>
       </c>
       <c r="T7">
-        <v>0.01713190268105284</v>
+        <v>0.03660741853605661</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>38.969021</v>
       </c>
       <c r="I8">
-        <v>0.3909055980492308</v>
+        <v>0.6642003483108451</v>
       </c>
       <c r="J8">
-        <v>0.3909055980492307</v>
+        <v>0.6642003483108452</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N8">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O8">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P8">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q8">
-        <v>65.61049962892677</v>
+        <v>84.03002575401777</v>
       </c>
       <c r="R8">
-        <v>590.4944966603409</v>
+        <v>756.2702317861599</v>
       </c>
       <c r="S8">
-        <v>0.0130817681855379</v>
+        <v>0.02819586451830057</v>
       </c>
       <c r="T8">
-        <v>0.0130817681855379</v>
+        <v>0.02819586451830057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>38.969021</v>
       </c>
       <c r="I9">
-        <v>0.3909055980492308</v>
+        <v>0.6642003483108451</v>
       </c>
       <c r="J9">
-        <v>0.3909055980492307</v>
+        <v>0.6642003483108452</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O9">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P9">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q9">
         <v>305.0535967949874</v>
@@ -1013,10 +1013,10 @@
         <v>2745.482371154887</v>
       </c>
       <c r="S9">
-        <v>0.06082319842108249</v>
+        <v>0.1023592437211707</v>
       </c>
       <c r="T9">
-        <v>0.06082319842108249</v>
+        <v>0.1023592437211707</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>38.969021</v>
       </c>
       <c r="I10">
-        <v>0.3909055980492308</v>
+        <v>0.6642003483108451</v>
       </c>
       <c r="J10">
-        <v>0.3909055980492307</v>
+        <v>0.6642003483108452</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N10">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O10">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P10">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q10">
-        <v>653.0981812680375</v>
+        <v>605.1498015421545</v>
       </c>
       <c r="R10">
-        <v>5877.883631412337</v>
+        <v>5446.34821387939</v>
       </c>
       <c r="S10">
-        <v>0.1302181671846024</v>
+        <v>0.2030550587656251</v>
       </c>
       <c r="T10">
-        <v>0.1302181671846024</v>
+        <v>0.2030550587656251</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>38.969021</v>
       </c>
       <c r="I11">
-        <v>0.3909055980492308</v>
+        <v>0.6642003483108451</v>
       </c>
       <c r="J11">
-        <v>0.3909055980492307</v>
+        <v>0.6642003483108452</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N11">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O11">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P11">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q11">
-        <v>98.69092918518166</v>
+        <v>65.25291123244833</v>
       </c>
       <c r="R11">
-        <v>888.2183626666349</v>
+        <v>587.276201092035</v>
       </c>
       <c r="S11">
-        <v>0.0196775190696258</v>
+        <v>0.02189529549735782</v>
       </c>
       <c r="T11">
-        <v>0.0196775190696258</v>
+        <v>0.02189529549735782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>38.969021</v>
       </c>
       <c r="I12">
-        <v>0.3909055980492308</v>
+        <v>0.6642003483108451</v>
       </c>
       <c r="J12">
-        <v>0.3909055980492307</v>
+        <v>0.6642003483108452</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N12">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O12">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P12">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q12">
-        <v>132.2772156030376</v>
+        <v>135.2355228529052</v>
       </c>
       <c r="R12">
-        <v>1190.494940427338</v>
+        <v>1217.119705676147</v>
       </c>
       <c r="S12">
-        <v>0.02637413036837226</v>
+        <v>0.0453776188476265</v>
       </c>
       <c r="T12">
-        <v>0.02637413036837225</v>
+        <v>0.0453776188476265</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>38.969021</v>
       </c>
       <c r="I13">
-        <v>0.3909055980492308</v>
+        <v>0.6642003483108451</v>
       </c>
       <c r="J13">
-        <v>0.3909055980492307</v>
+        <v>0.6642003483108452</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N13">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O13">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P13">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q13">
-        <v>705.8234745158162</v>
+        <v>784.7447525444496</v>
       </c>
       <c r="R13">
-        <v>6352.411270642345</v>
+        <v>7062.702772900046</v>
       </c>
       <c r="S13">
-        <v>0.1407308148200099</v>
+        <v>0.2633172669607645</v>
       </c>
       <c r="T13">
-        <v>0.1407308148200099</v>
+        <v>0.2633172669607645</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.688407666666667</v>
+        <v>0.4235366666666667</v>
       </c>
       <c r="H14">
-        <v>5.065223</v>
+        <v>1.27061</v>
       </c>
       <c r="I14">
-        <v>0.05081020706339322</v>
+        <v>0.02165667966273114</v>
       </c>
       <c r="J14">
-        <v>0.05081020706339321</v>
+        <v>0.02165667966273115</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N14">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O14">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P14">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q14">
-        <v>8.528102662931444</v>
+        <v>2.739853049511111</v>
       </c>
       <c r="R14">
-        <v>76.75292396638299</v>
+        <v>24.6586774456</v>
       </c>
       <c r="S14">
-        <v>0.00170037818230165</v>
+        <v>0.0009193443021213669</v>
       </c>
       <c r="T14">
-        <v>0.00170037818230165</v>
+        <v>0.0009193443021213669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.688407666666667</v>
+        <v>0.4235366666666667</v>
       </c>
       <c r="H15">
-        <v>5.065223</v>
+        <v>1.27061</v>
       </c>
       <c r="I15">
-        <v>0.05081020706339322</v>
+        <v>0.02165667966273114</v>
       </c>
       <c r="J15">
-        <v>0.05081020706339321</v>
+        <v>0.02165667966273115</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O15">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P15">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q15">
-        <v>39.6510986180201</v>
+        <v>9.946468776407777</v>
       </c>
       <c r="R15">
-        <v>356.8598875621809</v>
+        <v>89.51821898767</v>
       </c>
       <c r="S15">
-        <v>0.007905845609414481</v>
+        <v>0.00333748899323277</v>
       </c>
       <c r="T15">
-        <v>0.007905845609414481</v>
+        <v>0.003337488993232771</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.688407666666667</v>
+        <v>0.4235366666666667</v>
       </c>
       <c r="H16">
-        <v>5.065223</v>
+        <v>1.27061</v>
       </c>
       <c r="I16">
-        <v>0.05081020706339322</v>
+        <v>0.02165667966273114</v>
       </c>
       <c r="J16">
-        <v>0.05081020706339321</v>
+        <v>0.02165667966273115</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N16">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O16">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P16">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q16">
-        <v>84.89019852505488</v>
+        <v>19.73129859581222</v>
       </c>
       <c r="R16">
-        <v>764.0117867254939</v>
+        <v>177.58168736231</v>
       </c>
       <c r="S16">
-        <v>0.01692585644995529</v>
+        <v>0.006620740824312493</v>
       </c>
       <c r="T16">
-        <v>0.01692585644995529</v>
+        <v>0.006620740824312494</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.688407666666667</v>
+        <v>0.4235366666666667</v>
       </c>
       <c r="H17">
-        <v>5.065223</v>
+        <v>1.27061</v>
       </c>
       <c r="I17">
-        <v>0.05081020706339322</v>
+        <v>0.02165667966273114</v>
       </c>
       <c r="J17">
-        <v>0.05081020706339321</v>
+        <v>0.02165667966273115</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N17">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O17">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P17">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q17">
-        <v>12.82792206661167</v>
+        <v>2.127613150483333</v>
       </c>
       <c r="R17">
-        <v>115.451298599505</v>
+        <v>19.14851835435</v>
       </c>
       <c r="S17">
-        <v>0.002557698900734694</v>
+        <v>0.0007139101957911084</v>
       </c>
       <c r="T17">
-        <v>0.002557698900734694</v>
+        <v>0.0007139101957911085</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.688407666666667</v>
+        <v>0.4235366666666667</v>
       </c>
       <c r="H18">
-        <v>5.065223</v>
+        <v>1.27061</v>
       </c>
       <c r="I18">
-        <v>0.05081020706339322</v>
+        <v>0.02165667966273114</v>
       </c>
       <c r="J18">
-        <v>0.05081020706339321</v>
+        <v>0.02165667966273115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N18">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O18">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P18">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q18">
-        <v>17.19349313005489</v>
+        <v>4.409441224918889</v>
       </c>
       <c r="R18">
-        <v>154.741438170494</v>
+        <v>39.68497102427</v>
       </c>
       <c r="S18">
-        <v>0.003428129532606878</v>
+        <v>0.00147956645572345</v>
       </c>
       <c r="T18">
-        <v>0.003428129532606877</v>
+        <v>0.00147956645572345</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.688407666666667</v>
+        <v>0.4235366666666667</v>
       </c>
       <c r="H19">
-        <v>5.065223</v>
+        <v>1.27061</v>
       </c>
       <c r="I19">
-        <v>0.05081020706339322</v>
+        <v>0.02165667966273114</v>
       </c>
       <c r="J19">
-        <v>0.05081020706339321</v>
+        <v>0.02165667966273115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N19">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O19">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P19">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q19">
-        <v>91.74347225857754</v>
+        <v>25.58710751369667</v>
       </c>
       <c r="R19">
-        <v>825.6912503271978</v>
+        <v>230.28396762327</v>
       </c>
       <c r="S19">
-        <v>0.01829229838838023</v>
+        <v>0.008585628891549955</v>
       </c>
       <c r="T19">
-        <v>0.01829229838838023</v>
+        <v>0.008585628891549955</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.16201466666667</v>
+        <v>3.207586333333333</v>
       </c>
       <c r="H20">
-        <v>45.486044</v>
+        <v>9.622759</v>
       </c>
       <c r="I20">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086982</v>
       </c>
       <c r="J20">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086983</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N20">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O20">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P20">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q20">
-        <v>76.5829368149471</v>
+        <v>20.74983322251556</v>
       </c>
       <c r="R20">
-        <v>689.246431334524</v>
+        <v>186.74849900264</v>
       </c>
       <c r="S20">
-        <v>0.01526951070403275</v>
+        <v>0.006962505141103173</v>
       </c>
       <c r="T20">
-        <v>0.01526951070403275</v>
+        <v>0.006962505141103173</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.16201466666667</v>
+        <v>3.207586333333333</v>
       </c>
       <c r="H21">
-        <v>45.486044</v>
+        <v>9.622759</v>
       </c>
       <c r="I21">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086982</v>
       </c>
       <c r="J21">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086983</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O21">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P21">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q21">
-        <v>356.0695385746297</v>
+        <v>75.32796998008588</v>
       </c>
       <c r="R21">
-        <v>3204.625847171668</v>
+        <v>677.9517298207729</v>
       </c>
       <c r="S21">
-        <v>0.07099502652638075</v>
+        <v>0.02527593222706541</v>
       </c>
       <c r="T21">
-        <v>0.07099502652638076</v>
+        <v>0.02527593222706542</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.16201466666667</v>
+        <v>3.207586333333333</v>
       </c>
       <c r="H22">
-        <v>45.486044</v>
+        <v>9.622759</v>
       </c>
       <c r="I22">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086982</v>
       </c>
       <c r="J22">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086983</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N22">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O22">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P22">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q22">
-        <v>762.3197054264701</v>
+        <v>149.4317935043321</v>
       </c>
       <c r="R22">
-        <v>6860.877348838232</v>
+        <v>1344.886141538989</v>
       </c>
       <c r="S22">
-        <v>0.1519953319370835</v>
+        <v>0.05014110809282192</v>
       </c>
       <c r="T22">
-        <v>0.1519953319370835</v>
+        <v>0.05014110809282193</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.16201466666667</v>
+        <v>3.207586333333333</v>
       </c>
       <c r="H23">
-        <v>45.486044</v>
+        <v>9.622759</v>
       </c>
       <c r="I23">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086982</v>
       </c>
       <c r="J23">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086983</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N23">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O23">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P23">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q23">
-        <v>115.1956049221267</v>
+        <v>16.11313352825167</v>
       </c>
       <c r="R23">
-        <v>1036.76044429914</v>
+        <v>145.018201754265</v>
       </c>
       <c r="S23">
-        <v>0.0229683085498052</v>
+        <v>0.005406683216518562</v>
       </c>
       <c r="T23">
-        <v>0.0229683085498052</v>
+        <v>0.005406683216518563</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.16201466666667</v>
+        <v>3.207586333333333</v>
       </c>
       <c r="H24">
-        <v>45.486044</v>
+        <v>9.622759</v>
       </c>
       <c r="I24">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086982</v>
       </c>
       <c r="J24">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086983</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N24">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O24">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P24">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q24">
-        <v>154.3987273664702</v>
+        <v>33.39418880070145</v>
       </c>
       <c r="R24">
-        <v>1389.588546298232</v>
+        <v>300.547699206313</v>
       </c>
       <c r="S24">
-        <v>0.03078483430203485</v>
+        <v>0.01120525686710394</v>
       </c>
       <c r="T24">
-        <v>0.03078483430203485</v>
+        <v>0.01120525686710394</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.16201466666667</v>
+        <v>3.207586333333333</v>
       </c>
       <c r="H25">
-        <v>45.486044</v>
+        <v>9.622759</v>
       </c>
       <c r="I25">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086982</v>
       </c>
       <c r="J25">
-        <v>0.4562790846789203</v>
+        <v>0.1640133551086983</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N25">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O25">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P25">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q25">
-        <v>823.8625655507049</v>
+        <v>193.7798137204903</v>
       </c>
       <c r="R25">
-        <v>7414.763089956344</v>
+        <v>1744.018323484413</v>
       </c>
       <c r="S25">
-        <v>0.1642660726595832</v>
+        <v>0.06502186956408526</v>
       </c>
       <c r="T25">
-        <v>0.1642660726595832</v>
+        <v>0.06502186956408525</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.177567</v>
+        <v>0.261918</v>
       </c>
       <c r="H26">
-        <v>0.532701</v>
+        <v>0.785754</v>
       </c>
       <c r="I26">
-        <v>0.005343624182563459</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="J26">
-        <v>0.005343624182563458</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N26">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O26">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P26">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q26">
-        <v>0.8968862410690001</v>
+        <v>1.69434404976</v>
       </c>
       <c r="R26">
-        <v>8.071976169620999</v>
+        <v>15.24909644784</v>
       </c>
       <c r="S26">
-        <v>0.0001788259190346154</v>
+        <v>0.0005685288662682274</v>
       </c>
       <c r="T26">
-        <v>0.0001788259190346153</v>
+        <v>0.0005685288662682274</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.177567</v>
+        <v>0.261918</v>
       </c>
       <c r="H27">
-        <v>0.532701</v>
+        <v>0.785754</v>
       </c>
       <c r="I27">
-        <v>0.005343624182563459</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="J27">
-        <v>0.005343624182563458</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O27">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P27">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q27">
-        <v>4.170039479982999</v>
+        <v>6.150964990781999</v>
       </c>
       <c r="R27">
-        <v>37.530355319847</v>
+        <v>55.35868491703799</v>
       </c>
       <c r="S27">
-        <v>0.0008314445113237272</v>
+        <v>0.002063926245180364</v>
       </c>
       <c r="T27">
-        <v>0.0008314445113237272</v>
+        <v>0.002063926245180364</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.177567</v>
+        <v>0.261918</v>
       </c>
       <c r="H28">
-        <v>0.532701</v>
+        <v>0.785754</v>
       </c>
       <c r="I28">
-        <v>0.005343624182563459</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="J28">
-        <v>0.005343624182563458</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N28">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O28">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P28">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q28">
-        <v>8.927759675041999</v>
+        <v>12.201971334126</v>
       </c>
       <c r="R28">
-        <v>80.34983707537799</v>
+        <v>109.817742007134</v>
       </c>
       <c r="S28">
-        <v>0.001780063909673401</v>
+        <v>0.004094311854673612</v>
       </c>
       <c r="T28">
-        <v>0.001780063909673401</v>
+        <v>0.004094311854673613</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.177567</v>
+        <v>0.261918</v>
       </c>
       <c r="H29">
-        <v>0.532701</v>
+        <v>0.785754</v>
       </c>
       <c r="I29">
-        <v>0.005343624182563459</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="J29">
-        <v>0.005343624182563458</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N29">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O29">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P29">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q29">
-        <v>1.349091029715</v>
+        <v>1.31573066751</v>
       </c>
       <c r="R29">
-        <v>12.141819267435</v>
+        <v>11.84157600759</v>
       </c>
       <c r="S29">
-        <v>0.0002689888998214437</v>
+        <v>0.00044148699599692</v>
       </c>
       <c r="T29">
-        <v>0.0002689888998214437</v>
+        <v>0.0004414869959969201</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.177567</v>
+        <v>0.261918</v>
       </c>
       <c r="H30">
-        <v>0.532701</v>
+        <v>0.785754</v>
       </c>
       <c r="I30">
-        <v>0.005343624182563459</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="J30">
-        <v>0.005343624182563458</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N30">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O30">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P30">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q30">
-        <v>1.808210810042</v>
+        <v>2.726828909142</v>
       </c>
       <c r="R30">
-        <v>16.273897290378</v>
+        <v>24.541460182278</v>
       </c>
       <c r="S30">
-        <v>0.0003605306281972613</v>
+        <v>0.0009149741154646381</v>
       </c>
       <c r="T30">
-        <v>0.0003605306281972613</v>
+        <v>0.0009149741154646381</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.177567</v>
+        <v>0.261918</v>
       </c>
       <c r="H31">
-        <v>0.532701</v>
+        <v>0.785754</v>
       </c>
       <c r="I31">
-        <v>0.005343624182563459</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="J31">
-        <v>0.005343624182563458</v>
+        <v>0.0133926402843592</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N31">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O31">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P31">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q31">
-        <v>9.648506969113999</v>
+        <v>15.823244014542</v>
       </c>
       <c r="R31">
-        <v>86.83656272202599</v>
+        <v>142.409196130878</v>
       </c>
       <c r="S31">
-        <v>0.00192377031451301</v>
+        <v>0.005309412206775442</v>
       </c>
       <c r="T31">
-        <v>0.00192377031451301</v>
+        <v>0.005309412206775441</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.630730333333333</v>
+        <v>0.8682696666666666</v>
       </c>
       <c r="H32">
-        <v>4.892191</v>
+        <v>2.604809</v>
       </c>
       <c r="I32">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114515</v>
       </c>
       <c r="J32">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114516</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N32">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O32">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P32">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q32">
-        <v>8.236775971101222</v>
+        <v>5.616824896737777</v>
       </c>
       <c r="R32">
-        <v>74.130983739911</v>
+        <v>50.55142407064</v>
       </c>
       <c r="S32">
-        <v>0.001642291926742908</v>
+        <v>0.001884698146767659</v>
       </c>
       <c r="T32">
-        <v>0.001642291926742908</v>
+        <v>0.001884698146767659</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.630730333333333</v>
+        <v>0.8682696666666666</v>
       </c>
       <c r="H33">
-        <v>4.892191</v>
+        <v>2.604809</v>
       </c>
       <c r="I33">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114515</v>
       </c>
       <c r="J33">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114516</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O33">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P33">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q33">
-        <v>38.29658591520855</v>
+        <v>20.39071893579144</v>
       </c>
       <c r="R33">
-        <v>344.669273236877</v>
+        <v>183.516470422123</v>
       </c>
       <c r="S33">
-        <v>0.007635775707756014</v>
+        <v>0.006842006097050755</v>
       </c>
       <c r="T33">
-        <v>0.007635775707756015</v>
+        <v>0.006842006097050756</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.630730333333333</v>
+        <v>0.8682696666666666</v>
       </c>
       <c r="H34">
-        <v>4.892191</v>
+        <v>2.604809</v>
       </c>
       <c r="I34">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114515</v>
       </c>
       <c r="J34">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114516</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N34">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O34">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P34">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q34">
-        <v>81.99028260206644</v>
+        <v>40.45007056772655</v>
       </c>
       <c r="R34">
-        <v>737.912543418598</v>
+        <v>364.050635109539</v>
       </c>
       <c r="S34">
-        <v>0.01634765588637721</v>
+        <v>0.0135728235145612</v>
       </c>
       <c r="T34">
-        <v>0.01634765588637721</v>
+        <v>0.0135728235145612</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.630730333333333</v>
+        <v>0.8682696666666666</v>
       </c>
       <c r="H35">
-        <v>4.892191</v>
+        <v>2.604809</v>
       </c>
       <c r="I35">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114515</v>
       </c>
       <c r="J35">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114516</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N35">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O35">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P35">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q35">
-        <v>12.38971016339833</v>
+        <v>4.361704915668333</v>
       </c>
       <c r="R35">
-        <v>111.507391470585</v>
+        <v>39.255344241015</v>
       </c>
       <c r="S35">
-        <v>0.002470325895401677</v>
+        <v>0.001463548770424002</v>
       </c>
       <c r="T35">
-        <v>0.002470325895401677</v>
+        <v>0.001463548770424002</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.630730333333333</v>
+        <v>0.8682696666666666</v>
       </c>
       <c r="H36">
-        <v>4.892191</v>
+        <v>2.604809</v>
       </c>
       <c r="I36">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114515</v>
       </c>
       <c r="J36">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114516</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N36">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O36">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P36">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q36">
-        <v>16.60614988706645</v>
+        <v>9.039557525629222</v>
       </c>
       <c r="R36">
-        <v>149.455348983598</v>
+        <v>81.356017730663</v>
       </c>
       <c r="S36">
-        <v>0.003311021932549381</v>
+        <v>0.003033179354771759</v>
       </c>
       <c r="T36">
-        <v>0.003311021932549381</v>
+        <v>0.003033179354771759</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.630730333333333</v>
+        <v>0.8682696666666666</v>
       </c>
       <c r="H37">
-        <v>4.892191</v>
+        <v>2.604809</v>
       </c>
       <c r="I37">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114515</v>
       </c>
       <c r="J37">
-        <v>0.04907449044270484</v>
+        <v>0.04439719040114516</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N37">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O37">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P37">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q37">
-        <v>88.60944311675178</v>
+        <v>52.45474845597366</v>
       </c>
       <c r="R37">
-        <v>797.484988050766</v>
+        <v>472.0927361037629</v>
       </c>
       <c r="S37">
-        <v>0.01766741909387765</v>
+        <v>0.01760093451756979</v>
       </c>
       <c r="T37">
-        <v>0.01766741909387766</v>
+        <v>0.01760093451756979</v>
       </c>
     </row>
   </sheetData>
